--- a/data/HDFCBANK.xlsx
+++ b/data/HDFCBANK.xlsx
@@ -507,7 +507,7 @@
         <v>1991.099975585938</v>
       </c>
       <c r="F2" t="n">
-        <v>8754810</v>
+        <v>8755858</v>
       </c>
     </row>
     <row r="3">
